--- a/data/long_razon/P18_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_2-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-70,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-77,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-74,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-82,49; -50,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 165,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 188,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-86,62; -62,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 168,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,18; 81,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,07; -63,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,33; 132,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 89,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-48,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-71,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>101,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-59,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,67; -16,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 89,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 82,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,02; -52,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,77; 214,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 16,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,14; -42,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 113,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 32,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-55,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>162,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-54,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>159,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-54,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>160,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-72,23; -32,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,9; 341,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 66,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-67,4; -37,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,43; 283,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 10,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,87; -41,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,06; 259,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 23,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-63,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>109,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-51,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>76,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-57,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,23; -49,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,55; 229,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 46,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,14; -33,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,58; 141,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 16,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,89; -45,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,13; 139,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 18,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-63,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-60,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-61,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-75,16; -45,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 62,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 74,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-73,59; -40,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 131,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 54,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-71,51; -50,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 66,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 46,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-41,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-57,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-51,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 23,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 34,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 76,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,5; -35,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 95,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 104,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,38; -27,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 53,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 66,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-57,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-59,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-64,62; -47,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,22; 78,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 42,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-66,68; -53,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>48,11; 107,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 13,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-64,31; -54,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,04; 83,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 21,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P18_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_2-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.7042911021175806</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5710157056515762</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6629392871715127</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4428981058541393</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2940078183337453</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.7679063089289894</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.4718850398291795</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.08854518764027403</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.09658966723481195</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.4150251777479698</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.7397624540733373</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5186557803482336</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.269012477997359</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.2882862983330401</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>-0.1009938166655219</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8319520510016127</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.0586854981626201</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.08258007173648378</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7513609697802986</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4879142139717452</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.8767558291575455</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.07651288223651187</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4576923494853369</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5017896742386572</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.7281443670080272</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.8289003805266977</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.05549990274525365</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.1240899655228815</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.5549047984460763</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.4908185765811011</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.4885393026934474</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.999286487438438</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.93611527750617</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.1880609681687616</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.840479151756123</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.6268270371930037</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.528190883318552</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.6113068940430652</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5962644145262518</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.2046231433466589</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.6311755739478863</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.18749733650325</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.8786682836729619</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.09422414838566234</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.4189882255100237</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.4731626818591335</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2767426531896392</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.06845609305580544</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.8412390669913926</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.4456298866509689</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.7187470770247648</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.9854223498724713</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.2223690204905972</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2778989255961122</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.04456266337338009</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.5938677546342395</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.5637732972167081</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.08313324798230187</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.2528914836596384</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.2921749300455229</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.6987850834135652</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3049564237965109</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3614759809443962</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.05489002481392122</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.8092873492152521</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.8343429480232593</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.2875327176862275</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4813609702782661</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5403991659831249</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4273895544451899</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.7152162881955543</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.02104642473277097</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.3291805672501888</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.2159226910621336</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.5998856981577256</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.1294441163444386</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.209769659481939</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.7757580069473088</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.050622589144658</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4118208077362588</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.5300142801723422</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.118436952197659</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.1507411023766664</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1862132467480531</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.5497546860729304</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.4220233426140287</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.207701416152022</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.2961557650295233</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.251550750765247</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.1644683618261386</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.4981853177519334</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.585518221887506</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1111923259900416</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.724535407711017</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4818924137160749</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.5518944809667019</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.578696939050237</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1764583273405748</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.03701621573003538</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.23110126206754</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.5252744255665583</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>1.581909082810114</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.0349942543300919</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.2437852394581858</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.3532091966999392</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6762505066203536</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.6194557380196719</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2135902887920393</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1228546157854132</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.1214117275164527</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.6758081581605578</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.7544531281827039</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3961975994718115</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3014845468429832</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.236193151298233</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.6383902115612643</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.8964512280157849</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.2286228517338418</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.02734120288847743</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.0455198427388504</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.2459270978611146</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.19423520659863</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6448079194898944</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.859219858178528</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.569593414818008</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.3835248925618646</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.628009439492755</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.09853313179035869</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3061859869269617</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.195586255163388</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.359407879850205</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>2.578001891462248</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.2507685134338015</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.6700622154291757</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.981255773584078</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.6254725580861524</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.06554901634926</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.04562717100113693</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.465784918134621</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.3583638693705004</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.5202512250100585</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.7754824293163155</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1270238010673939</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.0637054362427143</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1972069104826482</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.5716001523184649</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.9073016201662629</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.053522986789978</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.1668084319270472</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.283325512944651</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.7335241004040448</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.4242085998190219</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2397191434816</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.002882035452555251</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.64584963363546</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.6649462331632801</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.3043068746845786</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3309827383567089</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3324672808556634</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.4575596814115319</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.6666220895327767</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.475541867359023</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.2107596946278583</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.06874287670320595</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.4913715098289836</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.4538943733424865</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.052152556330092</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4550846341967402</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.385478543470775</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.06316772533375684</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.3387890393480381</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.474758519548476</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1456846299733136</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2828151355556143</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.2229115916890309</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.4632237328284888</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.458069660635668</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.1772959555754497</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.6100193262408518</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.008410635075317396</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.6304825015426413</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.1125318920525677</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2682801771937467</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.2459477274350627</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.3635266523227543</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.5959330978351126</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.5338015831812102</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.07847660183497096</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.05126104437639747</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.2778990767418347</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.6138424780320088</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.2930205695124365</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.1729715682485773</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.1618569152930054</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>-0.3196620006851529</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.7609830823633</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.212343332623042</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.07890942315825226</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.5082633228304254</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.6457158483539106</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.7343009889954208</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.02733061209247399</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2137196506774324</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3888155739846438</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.5265476816386602</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.7202034143062823</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.02761797898505288</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.06431816924042669</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.3829216753575228</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.5013357296123113</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>-0.4270577702098438</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.6772215731694201</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.8078268340605879</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.2052942295741957</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.005343499517688879</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-0.4123470583160878</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.284834830163497</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.4945154829364583</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.5676285018700394</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.1361023259457946</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>-0.485056582799522</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.6643979405872608</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.4540601447697533</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.1603791245347151</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>-0.06920676252934758</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.4051643991148878</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.213093515956625</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.05134511260427521</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.08680979813754135</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.2997556741960784</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.5415048825835622</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.4070172849477691</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.3053118626195467</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.03182478887291269</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.1854760697978824</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.4912597407159546</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.1545496965867793</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.1966443672323459</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.0531714970012778</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>-0.2312778428269866</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.6500721799391305</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.5702122037222312</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3783351484280706</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.4274933618205719</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.6404893404345576</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.6876256475536905</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.08243960620515686</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.1117097706981913</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.3959614592704595</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.6112050960854063</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.6400717919475405</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.162347754319826</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.1137873280451367</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.3013187448944675</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.5141277235389351</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.1723651706184028</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.4377096461524406</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.8212645719930735</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.148377430345363</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.5020843199350855</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>-0.2883200374761899</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.213463261967451</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.8939365103601767</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.7269841275650815</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.6540055162773681</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>-0.2845713997317993</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.6297813393804771</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.6224385694105633</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0.5329006839677619</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>0.3201962555289929</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.5573345768528114</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5066550497262918</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1753875426506439</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1898670669987372</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.1968694664917633</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.6082831147986373</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.7519885351406825</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.0412424359381062</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.07536807308375429</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.1625980394237929</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.5843534811444757</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.6312544735593106</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.05953268562324657</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.0475671437384696</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>-0.1797423304220765</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.6432810400619074</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2186117161262362</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.02227433557176148</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.07867799645718708</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.3833892241905417</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.6698228456917641</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.4992323229883193</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.164917915100473</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.2212245923042779</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.3239943252439017</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.6347426477244535</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.4470243778032591</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.05920614845666314</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.09515273574442483</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.3078707900018982</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.4622798134635963</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.8443259777934653</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3742067948674899</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5421304418713349</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.05124414750345663</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.5382526945656064</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1.091840178293454</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.1067024371368298</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.1255271736331852</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.0527807587916583</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.5262483258473326</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.8676542450449608</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.1811984898647605</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.2263534987077502</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>-0.02519503212032147</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
